--- a/DFT Calculations/gp_start_folder_empty/pyrd_extracted_properties.xlsx
+++ b/DFT Calculations/gp_start_folder_empty/pyrd_extracted_properties.xlsx
@@ -1817,7 +1817,7 @@
         <v>509.5770232025235</v>
       </c>
       <c r="AD6">
-        <v>0.8986201669828482</v>
+        <v>0.8986201669828481</v>
       </c>
       <c r="AE6">
         <v>-0.42214</v>
@@ -1993,7 +1993,7 @@
         <v>258.3415811994036</v>
       </c>
       <c r="AC7">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="AD7">
         <v>0.9285087859142152</v>
@@ -2074,7 +2074,7 @@
         <v>0.8053945846637904</v>
       </c>
       <c r="BD7">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="BE7">
         <v>3.229065158943173E-06</v>
@@ -2175,7 +2175,7 @@
         <v>348.6360723569057</v>
       </c>
       <c r="AD8">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="AE8">
         <v>-0.62826</v>
@@ -2354,7 +2354,7 @@
         <v>348.2841468353619</v>
       </c>
       <c r="AD9">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="AE9">
         <v>-0.63452</v>
@@ -2533,7 +2533,7 @@
         <v>399.1757624569898</v>
       </c>
       <c r="AD10">
-        <v>0.9121031846880719</v>
+        <v>0.9121031846880717</v>
       </c>
       <c r="AE10">
         <v>-0.42724</v>
@@ -2712,7 +2712,7 @@
         <v>399.3307718701594</v>
       </c>
       <c r="AD11">
-        <v>0.9117366165261983</v>
+        <v>0.9117366165261985</v>
       </c>
       <c r="AE11">
         <v>-0.42725</v>
@@ -2891,7 +2891,7 @@
         <v>396.0137056197053</v>
       </c>
       <c r="AD12">
-        <v>0.9152405684619559</v>
+        <v>0.9152405684619557</v>
       </c>
       <c r="AE12">
         <v>-0.43297</v>
@@ -3249,7 +3249,7 @@
         <v>394.7700073827853</v>
       </c>
       <c r="AD14">
-        <v>0.9189352045699101</v>
+        <v>0.9189352045699098</v>
       </c>
       <c r="AE14">
         <v>-0.42049</v>
@@ -3428,7 +3428,7 @@
         <v>395.0447647669184</v>
       </c>
       <c r="AD15">
-        <v>0.9186803150263008</v>
+        <v>0.918680315026301</v>
       </c>
       <c r="AE15">
         <v>-0.4182</v>
@@ -3500,13 +3500,13 @@
         <v>3.252552196190434</v>
       </c>
       <c r="BB15">
-        <v>6.16872233445734</v>
+        <v>6.168722334457344</v>
       </c>
       <c r="BC15">
         <v>0.8249747479429121</v>
       </c>
       <c r="BD15">
-        <v>5.540962677649041E-05</v>
+        <v>5.541013971222977E-05</v>
       </c>
       <c r="BE15">
         <v>8.324370573602774E-06</v>
@@ -3607,7 +3607,7 @@
         <v>397.937113490653</v>
       </c>
       <c r="AD16">
-        <v>0.9181054280917456</v>
+        <v>0.9181054280917458</v>
       </c>
       <c r="AE16">
         <v>-0.42386</v>
@@ -3965,7 +3965,7 @@
         <v>471.1024761564533</v>
       </c>
       <c r="AD18">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="AE18">
         <v>-0.6436500000000001</v>
@@ -4144,7 +4144,7 @@
         <v>470.2148987279571</v>
       </c>
       <c r="AD19">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="AE19">
         <v>-0.6278</v>
@@ -4216,13 +4216,13 @@
         <v>4.320339031660922</v>
       </c>
       <c r="BB19">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="BC19">
         <v>0.8180933906587335</v>
       </c>
       <c r="BD19">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="BE19">
         <v>4.125479331190739E-05</v>
@@ -4499,7 +4499,7 @@
         <v>464.1656994814472</v>
       </c>
       <c r="AD21">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="AE21">
         <v>-0.6524</v>
@@ -4857,7 +4857,7 @@
         <v>463.3070130704092</v>
       </c>
       <c r="AD23">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="AE23">
         <v>-0.63265</v>
@@ -4911,7 +4911,7 @@
         <v>49.89836136800944</v>
       </c>
       <c r="AV23">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="AW23">
         <v>1.888818053213638</v>
@@ -4920,7 +4920,7 @@
         <v>5.719278550771907</v>
       </c>
       <c r="AY23">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="AZ23">
         <v>1.888818053213638</v>
@@ -5105,7 +5105,7 @@
         <v>4.414053947725887</v>
       </c>
       <c r="BB24">
-        <v>6.214148878782978</v>
+        <v>6.214148878782982</v>
       </c>
       <c r="BC24">
         <v>0.8292867540075833</v>
@@ -5212,7 +5212,7 @@
         <v>520.6362926631053</v>
       </c>
       <c r="AD25">
-        <v>0.883275537494234</v>
+        <v>0.8832755374942342</v>
       </c>
       <c r="AE25">
         <v>-0.43091</v>
@@ -5290,7 +5290,7 @@
         <v>0.7926424381045658</v>
       </c>
       <c r="BD25">
-        <v>0.2170727045445173</v>
+        <v>0.2170727045446482</v>
       </c>
       <c r="BE25">
         <v>0.03262968374534926</v>
@@ -5391,7 +5391,7 @@
         <v>520.7228733601006</v>
       </c>
       <c r="AD26">
-        <v>0.8831491365903076</v>
+        <v>0.8831491365903077</v>
       </c>
       <c r="AE26">
         <v>-0.4309</v>
@@ -5570,7 +5570,7 @@
         <v>519.4412770129063</v>
       </c>
       <c r="AD27">
-        <v>0.8864017617587303</v>
+        <v>0.8864017617587304</v>
       </c>
       <c r="AE27">
         <v>-0.41717</v>
@@ -5749,7 +5749,7 @@
         <v>516.8320086551948</v>
       </c>
       <c r="AD28">
-        <v>0.8873827020535928</v>
+        <v>0.887382702053593</v>
       </c>
       <c r="AE28">
         <v>-0.41974</v>
@@ -5928,7 +5928,7 @@
         <v>510.2118432714877</v>
       </c>
       <c r="AD29">
-        <v>0.898607208397676</v>
+        <v>0.8986072083976763</v>
       </c>
       <c r="AE29">
         <v>-0.43004</v>
@@ -6006,7 +6006,7 @@
         <v>0.7975432560152171</v>
       </c>
       <c r="BD29">
-        <v>0.1824562368405559</v>
+        <v>0.1824562368404001</v>
       </c>
       <c r="BE29">
         <v>0.02744165292985997</v>
